--- a/districtgenerator/data/SIA2024.xlsx
+++ b/districtgenerator/data/SIA2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\Test\districtgenerator\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\districtgenerator\districtgenerator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8EF67B9-27FF-4B20-8B0B-55C27096612F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529F49F2-7A85-4D30-8C77-37AB5D11F222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="799" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" tabRatio="799" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SIA2024" sheetId="13" r:id="rId1"/>
@@ -608,12 +608,6 @@
     <t>Living: SFH</t>
   </si>
   <si>
-    <t>School</t>
-  </si>
-  <si>
-    <t>Restaurant (with kitchen)</t>
-  </si>
-  <si>
     <t>Hospital</t>
   </si>
   <si>
@@ -653,10 +647,16 @@
     <t>OB</t>
   </si>
   <si>
-    <t>Grocery_store</t>
-  </si>
-  <si>
     <t>_store</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>SC</t>
+  </si>
+  <si>
+    <t>RE</t>
   </si>
 </sst>
 </file>
@@ -764,7 +764,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -779,12 +779,6 @@
     </fill>
     <fill>
       <patternFill patternType="darkTrellis"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="30">
@@ -1214,7 +1208,7 @@
       <protection hidden="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
@@ -1280,7 +1274,6 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="22">
     <cellStyle name="5x indented GHG Textfiels" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1328,912 +1321,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'SIA2024'!$AX$7:$BU$7</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="24"/>
-                <c:pt idx="0">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6E77-465C-B27F-A2217F3C624C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1357538352"/>
-        <c:axId val="1357543152"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1357538352"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1357543152"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1357543152"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1357538352"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.78740157499999996" l="0.7" r="0.7" t="0.78740157499999996" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>84667</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>54</xdr:col>
-      <xdr:colOff>359834</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Diagramm 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F36E27-2999-EDC7-53F2-DD1C201C2F98}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2502,10 +1589,10 @@
   <dimension ref="A1:CU48"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="AF3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AT16" sqref="AT16"/>
+      <selection pane="bottomRight" activeCell="CC12" sqref="CC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2529,8 +1616,9 @@
     <col min="19" max="19" width="11.140625" customWidth="1"/>
     <col min="86" max="86" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="88" max="91" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="22" bestFit="1" customWidth="1"/>
+    <col min="88" max="90" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="22" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="93" max="93" width="9" bestFit="1" customWidth="1"/>
     <col min="94" max="94" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="95" max="95" width="7.85546875" bestFit="1" customWidth="1"/>
@@ -2549,7 +1637,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F1" s="26" t="s">
         <v>1</v>
@@ -2677,7 +1765,7 @@
         <v>11</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F2" s="12" t="s">
         <v>12</v>
@@ -2926,37 +2014,37 @@
         <v>190</v>
       </c>
       <c r="CJ2" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="CK2" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="CL2" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="CK2" s="4" t="s">
+      <c r="CM2" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="CN2" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="CO2" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="CP2" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="CL2" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="CM2" s="59" t="s">
-        <v>207</v>
-      </c>
-      <c r="CN2" s="4" t="s">
-        <v>192</v>
-      </c>
-      <c r="CO2" s="4" t="s">
+      <c r="CQ2" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="CR2" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="CP2" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="CQ2" s="4" t="s">
+      <c r="CS2" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="CR2" s="4" t="s">
+      <c r="CT2" s="4" t="s">
         <v>196</v>
-      </c>
-      <c r="CS2" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="CT2" s="4" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:99" x14ac:dyDescent="0.25">
@@ -3233,7 +2321,9 @@
       <c r="CM3" s="57">
         <v>0</v>
       </c>
-      <c r="CN3" s="57"/>
+      <c r="CN3" s="57">
+        <v>0</v>
+      </c>
       <c r="CO3" s="57"/>
       <c r="CP3" s="57"/>
       <c r="CQ3" s="57"/>
@@ -3519,7 +2609,9 @@
       <c r="CM4" s="57">
         <v>0</v>
       </c>
-      <c r="CN4" s="57"/>
+      <c r="CN4" s="57">
+        <v>0</v>
+      </c>
       <c r="CO4" s="57"/>
       <c r="CP4" s="57"/>
       <c r="CQ4" s="57"/>
@@ -3805,7 +2897,9 @@
       <c r="CM5" s="57">
         <v>0</v>
       </c>
-      <c r="CN5" s="57"/>
+      <c r="CN5" s="57">
+        <v>0</v>
+      </c>
       <c r="CO5" s="57"/>
       <c r="CP5" s="57"/>
       <c r="CQ5" s="57"/>
@@ -4091,7 +3185,9 @@
       <c r="CM6" s="57">
         <v>0</v>
       </c>
-      <c r="CN6" s="57"/>
+      <c r="CN6" s="57">
+        <v>0</v>
+      </c>
       <c r="CO6" s="57"/>
       <c r="CP6" s="57"/>
       <c r="CQ6" s="57"/>
@@ -4108,7 +3204,7 @@
         <v>148</v>
       </c>
       <c r="B7" s="48" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C7" s="1">
         <v>26</v>
@@ -4675,7 +3771,9 @@
       <c r="CM8" s="57">
         <v>0</v>
       </c>
-      <c r="CN8" s="57"/>
+      <c r="CN8" s="57">
+        <v>0</v>
+      </c>
       <c r="CO8" s="57"/>
       <c r="CP8" s="57"/>
       <c r="CQ8" s="57"/>
@@ -4961,7 +4059,9 @@
       <c r="CM9" s="57">
         <v>0</v>
       </c>
-      <c r="CN9" s="57"/>
+      <c r="CN9" s="57">
+        <v>0</v>
+      </c>
       <c r="CO9" s="57"/>
       <c r="CP9" s="57"/>
       <c r="CQ9" s="57"/>
@@ -5247,7 +4347,9 @@
       <c r="CM10" s="57">
         <v>0</v>
       </c>
-      <c r="CN10" s="57"/>
+      <c r="CN10" s="57">
+        <v>0</v>
+      </c>
       <c r="CO10" s="57"/>
       <c r="CP10" s="57"/>
       <c r="CQ10" s="57"/>
@@ -5533,7 +4635,9 @@
       <c r="CM11" s="57">
         <v>0</v>
       </c>
-      <c r="CN11" s="57"/>
+      <c r="CN11" s="57">
+        <v>0</v>
+      </c>
       <c r="CO11" s="57"/>
       <c r="CP11" s="57"/>
       <c r="CQ11" s="57"/>
@@ -5819,7 +4923,9 @@
       <c r="CM12" s="57">
         <v>0</v>
       </c>
-      <c r="CN12" s="57"/>
+      <c r="CN12" s="57">
+        <v>0</v>
+      </c>
       <c r="CO12" s="57"/>
       <c r="CP12" s="57"/>
       <c r="CQ12" s="57"/>
@@ -6105,7 +5211,9 @@
       <c r="CM13" s="57">
         <v>0</v>
       </c>
-      <c r="CN13" s="57"/>
+      <c r="CN13" s="57">
+        <v>0</v>
+      </c>
       <c r="CO13" s="57"/>
       <c r="CP13" s="57"/>
       <c r="CQ13" s="57"/>
@@ -6391,7 +5499,9 @@
       <c r="CM14" s="57">
         <v>0</v>
       </c>
-      <c r="CN14" s="57"/>
+      <c r="CN14" s="57">
+        <v>0</v>
+      </c>
       <c r="CO14" s="57"/>
       <c r="CP14" s="57"/>
       <c r="CQ14" s="57"/>
@@ -6677,7 +5787,9 @@
       <c r="CM15" s="57">
         <v>0</v>
       </c>
-      <c r="CN15" s="57"/>
+      <c r="CN15" s="57">
+        <v>0</v>
+      </c>
       <c r="CO15" s="57"/>
       <c r="CP15" s="57"/>
       <c r="CQ15" s="57"/>
@@ -6962,9 +6074,11 @@
         <v>0.64999999999999991</v>
       </c>
       <c r="CM16" s="57">
-        <v>0.2</v>
-      </c>
-      <c r="CN16" s="57"/>
+        <v>0</v>
+      </c>
+      <c r="CN16" s="57">
+        <v>0.2</v>
+      </c>
       <c r="CO16" s="57"/>
       <c r="CP16" s="57"/>
       <c r="CQ16" s="57"/>
@@ -6981,7 +6095,7 @@
         <v>158</v>
       </c>
       <c r="B17" s="48" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C17" s="1">
         <v>26</v>
@@ -7248,9 +6362,11 @@
         <v>0</v>
       </c>
       <c r="CM17" s="57">
-        <v>0.2</v>
-      </c>
-      <c r="CN17" s="57"/>
+        <v>0</v>
+      </c>
+      <c r="CN17" s="57">
+        <v>0.2</v>
+      </c>
       <c r="CO17" s="57"/>
       <c r="CP17" s="57"/>
       <c r="CQ17" s="57"/>
@@ -7534,9 +6650,11 @@
         <v>0</v>
       </c>
       <c r="CM18" s="57">
-        <v>0.2</v>
-      </c>
-      <c r="CN18" s="57"/>
+        <v>0</v>
+      </c>
+      <c r="CN18" s="57">
+        <v>0.2</v>
+      </c>
       <c r="CO18" s="57"/>
       <c r="CP18" s="57"/>
       <c r="CQ18" s="57"/>
@@ -7820,10 +6938,10 @@
         <v>0</v>
       </c>
       <c r="CM19" s="57">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="CN19" s="57">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="CO19" s="57"/>
       <c r="CP19" s="57"/>
@@ -8110,7 +7228,9 @@
       <c r="CM20" s="57">
         <v>0</v>
       </c>
-      <c r="CN20" s="57"/>
+      <c r="CN20" s="57">
+        <v>0</v>
+      </c>
       <c r="CO20" s="57"/>
       <c r="CP20" s="57"/>
       <c r="CQ20" s="57"/>
@@ -8394,10 +7514,10 @@
         <v>0</v>
       </c>
       <c r="CM21" s="57">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="CN21" s="57">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="CO21" s="57"/>
       <c r="CP21" s="57"/>
@@ -8684,7 +7804,9 @@
       <c r="CM22" s="57">
         <v>0</v>
       </c>
-      <c r="CN22" s="57"/>
+      <c r="CN22" s="57">
+        <v>0</v>
+      </c>
       <c r="CO22" s="57"/>
       <c r="CP22" s="57"/>
       <c r="CQ22" s="57"/>
@@ -8970,7 +8092,9 @@
       <c r="CM23" s="57">
         <v>0</v>
       </c>
-      <c r="CN23" s="57"/>
+      <c r="CN23" s="57">
+        <v>0</v>
+      </c>
       <c r="CO23" s="57">
         <v>0.2</v>
       </c>
@@ -9258,7 +8382,9 @@
       <c r="CM24" s="57">
         <v>0</v>
       </c>
-      <c r="CN24" s="57"/>
+      <c r="CN24" s="57">
+        <v>0</v>
+      </c>
       <c r="CO24" s="57">
         <v>0.2</v>
       </c>
@@ -9546,7 +8672,9 @@
       <c r="CM25" s="57">
         <v>0</v>
       </c>
-      <c r="CN25" s="57"/>
+      <c r="CN25" s="57">
+        <v>0</v>
+      </c>
       <c r="CO25" s="57">
         <v>0.2</v>
       </c>
@@ -9834,7 +8962,9 @@
       <c r="CM26" s="57">
         <v>0</v>
       </c>
-      <c r="CN26" s="57"/>
+      <c r="CN26" s="57">
+        <v>0</v>
+      </c>
       <c r="CO26" s="57"/>
       <c r="CP26" s="57">
         <v>0.5</v>
@@ -10122,7 +9252,9 @@
       <c r="CM27" s="57">
         <v>0</v>
       </c>
-      <c r="CN27" s="57"/>
+      <c r="CN27" s="57">
+        <v>0</v>
+      </c>
       <c r="CO27" s="57"/>
       <c r="CP27" s="57">
         <v>0.05</v>
@@ -10410,7 +9542,9 @@
       <c r="CM28" s="57">
         <v>0</v>
       </c>
-      <c r="CN28" s="57"/>
+      <c r="CN28" s="57">
+        <v>0</v>
+      </c>
       <c r="CO28" s="57"/>
       <c r="CP28" s="57">
         <v>0.1</v>
@@ -10698,7 +9832,9 @@
       <c r="CM29" s="57">
         <v>0</v>
       </c>
-      <c r="CN29" s="57"/>
+      <c r="CN29" s="57">
+        <v>0</v>
+      </c>
       <c r="CO29" s="57"/>
       <c r="CP29" s="57"/>
       <c r="CQ29" s="57">
@@ -10986,7 +10122,9 @@
       <c r="CM30" s="57">
         <v>0</v>
       </c>
-      <c r="CN30" s="57"/>
+      <c r="CN30" s="57">
+        <v>0</v>
+      </c>
       <c r="CO30" s="57"/>
       <c r="CP30" s="57"/>
       <c r="CQ30" s="57">
@@ -11274,7 +10412,9 @@
       <c r="CM31" s="57">
         <v>0</v>
       </c>
-      <c r="CN31" s="57"/>
+      <c r="CN31" s="57">
+        <v>0</v>
+      </c>
       <c r="CO31" s="57"/>
       <c r="CP31" s="57"/>
       <c r="CQ31" s="57"/>
@@ -11560,7 +10700,9 @@
       <c r="CM32" s="57">
         <v>0</v>
       </c>
-      <c r="CN32" s="57"/>
+      <c r="CN32" s="57">
+        <v>0</v>
+      </c>
       <c r="CO32" s="57"/>
       <c r="CP32" s="57"/>
       <c r="CQ32" s="57"/>
@@ -11848,7 +10990,9 @@
       <c r="CM33" s="57">
         <v>0</v>
       </c>
-      <c r="CN33" s="57"/>
+      <c r="CN33" s="57">
+        <v>0</v>
+      </c>
       <c r="CO33" s="57"/>
       <c r="CP33" s="57"/>
       <c r="CQ33" s="57"/>
@@ -12136,7 +11280,9 @@
       <c r="CM34" s="57">
         <v>0</v>
       </c>
-      <c r="CN34" s="57"/>
+      <c r="CN34" s="57">
+        <v>0</v>
+      </c>
       <c r="CO34" s="57"/>
       <c r="CP34" s="57"/>
       <c r="CQ34" s="57"/>
@@ -12422,7 +11568,9 @@
       <c r="CM35" s="57">
         <v>0</v>
       </c>
-      <c r="CN35" s="57"/>
+      <c r="CN35" s="57">
+        <v>0</v>
+      </c>
       <c r="CO35" s="57"/>
       <c r="CP35" s="57"/>
       <c r="CQ35" s="57"/>
@@ -12441,7 +11589,7 @@
         <v>177</v>
       </c>
       <c r="B36" s="48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C36" s="1">
         <v>26</v>
@@ -13010,7 +12158,9 @@
       <c r="CM37" s="57">
         <v>0</v>
       </c>
-      <c r="CN37" s="57"/>
+      <c r="CN37" s="57">
+        <v>0</v>
+      </c>
       <c r="CO37" s="57"/>
       <c r="CP37" s="57">
         <v>0.05</v>
@@ -13298,9 +12448,11 @@
         <v>0</v>
       </c>
       <c r="CM38" s="57">
+        <v>0</v>
+      </c>
+      <c r="CN38" s="57">
         <v>0.05</v>
       </c>
-      <c r="CN38" s="57"/>
       <c r="CO38" s="57"/>
       <c r="CP38" s="57">
         <v>0.05</v>
@@ -13588,10 +12740,10 @@
         <v>0.2</v>
       </c>
       <c r="CM39" s="57">
+        <v>0.1</v>
+      </c>
+      <c r="CN39" s="57">
         <v>0.15</v>
-      </c>
-      <c r="CN39" s="57">
-        <v>0.1</v>
       </c>
       <c r="CO39" s="57">
         <v>0.1</v>
@@ -13621,7 +12773,7 @@
         <v>181</v>
       </c>
       <c r="B40" s="48" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C40" s="1">
         <v>26</v>
@@ -13890,7 +13042,9 @@
       <c r="CM40" s="57">
         <v>0</v>
       </c>
-      <c r="CN40" s="57"/>
+      <c r="CN40" s="57">
+        <v>0</v>
+      </c>
       <c r="CO40" s="57"/>
       <c r="CP40" s="57"/>
       <c r="CQ40" s="57"/>
@@ -14176,7 +13330,9 @@
       <c r="CM41" s="57">
         <v>0</v>
       </c>
-      <c r="CN41" s="57"/>
+      <c r="CN41" s="57">
+        <v>0</v>
+      </c>
       <c r="CO41" s="57"/>
       <c r="CP41" s="57"/>
       <c r="CQ41" s="57"/>
@@ -14462,7 +13618,9 @@
       <c r="CM42" s="57">
         <v>0</v>
       </c>
-      <c r="CN42" s="57"/>
+      <c r="CN42" s="57">
+        <v>0</v>
+      </c>
       <c r="CO42" s="57">
         <v>0.05</v>
       </c>
@@ -15048,7 +14206,9 @@
       <c r="CM44" s="57">
         <v>0</v>
       </c>
-      <c r="CN44" s="57"/>
+      <c r="CN44" s="57">
+        <v>0</v>
+      </c>
       <c r="CO44" s="57"/>
       <c r="CP44" s="57"/>
       <c r="CQ44" s="57"/>
@@ -15334,7 +14494,9 @@
       <c r="CM45" s="57">
         <v>0</v>
       </c>
-      <c r="CN45" s="57"/>
+      <c r="CN45" s="57">
+        <v>0</v>
+      </c>
       <c r="CO45" s="57"/>
       <c r="CP45" s="57"/>
       <c r="CQ45" s="57"/>
@@ -15620,7 +14782,9 @@
       <c r="CM46" s="57">
         <v>0</v>
       </c>
-      <c r="CN46" s="57"/>
+      <c r="CN46" s="57">
+        <v>0</v>
+      </c>
       <c r="CO46" s="57"/>
       <c r="CP46" s="57"/>
       <c r="CQ46" s="57"/>
@@ -15906,7 +15070,9 @@
       <c r="CM47" s="57">
         <v>0</v>
       </c>
-      <c r="CN47" s="57"/>
+      <c r="CN47" s="57">
+        <v>0</v>
+      </c>
       <c r="CO47" s="57"/>
       <c r="CP47" s="57"/>
       <c r="CQ47" s="57"/>
@@ -16191,15 +15357,15 @@
         <v>1</v>
       </c>
       <c r="CM48" s="58">
-        <f t="shared" ref="CM48" si="2">SUM(CM4:CM47)</f>
+        <f>SUM(CM4:CM47)</f>
         <v>1</v>
       </c>
       <c r="CN48" s="58">
-        <f t="shared" ref="CN48:CT48" si="3">SUM(CN4:CN47)</f>
+        <f t="shared" ref="CN48" si="2">SUM(CN4:CN47)</f>
         <v>1</v>
       </c>
       <c r="CO48" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="CO48:CT48" si="3">SUM(CO4:CO47)</f>
         <v>1</v>
       </c>
       <c r="CP48" s="58">
@@ -16234,6 +15400,5 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/districtgenerator/data/SIA2024.xlsx
+++ b/districtgenerator/data/SIA2024.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PycharmProjects\districtgenerator\districtgenerator\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{529F49F2-7A85-4D30-8C77-37AB5D11F222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C46E1CC7-33C6-408B-814C-84B809AB8B07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28320" tabRatio="799" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -647,9 +647,6 @@
     <t>OB</t>
   </si>
   <si>
-    <t>_store</t>
-  </si>
-  <si>
     <t>GS</t>
   </si>
   <si>
@@ -657,6 +654,9 @@
   </si>
   <si>
     <t>RE</t>
+  </si>
+  <si>
+    <t>store</t>
   </si>
 </sst>
 </file>
@@ -1588,11 +1588,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:CU48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="BW3" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane xSplit="2" ySplit="2" topLeftCell="CI3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="CC12" sqref="CC12"/>
+      <selection pane="bottomRight" activeCell="CO2" sqref="CO2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2017,16 +2017,16 @@
         <v>203</v>
       </c>
       <c r="CK2" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="CL2" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="CM2" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="CL2" s="4" t="s">
-        <v>205</v>
-      </c>
-      <c r="CM2" s="4" t="s">
+      <c r="CN2" s="4" t="s">
         <v>207</v>
-      </c>
-      <c r="CN2" s="4" t="s">
-        <v>204</v>
       </c>
       <c r="CO2" s="4" t="s">
         <v>192</v>
